--- a/Production/Power_Bill_of_Materials.xlsx
+++ b/Production/Power_Bill_of_Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\Documents\Projects\EEE3088 Project\Sensing Shit\Sensing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahhavik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9DA57A8-0797-4D07-B71F-D0BF412B2DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C66E2-945C-3746-B486-68F520C8B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D342BDD5-7D0F-4809-B4CE-9851CAD5AB05}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{D342BDD5-7D0F-4809-B4CE-9851CAD5AB05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Part </t>
   </si>
@@ -52,10 +51,34 @@
     <t>100mA 600mV@(100mA) Fixed 3.3V~3.3V Positive 1 30V SOIC-8_150mil Linear Voltage Regulators (LDO) ROHS</t>
   </si>
   <si>
-    <t>C8545</t>
-  </si>
-  <si>
-    <t>60V 115mA 200mW 7.5Ω@10V,500mA 2.5V@250μA N Channel SOT-23(SOT-23-3) MOSFETs ROHS</t>
+    <t>LM358DR2G</t>
+  </si>
+  <si>
+    <t>0.6 V/US 2 1MHZ 3V ~ 32V, ±1.5V ~ 16V 1.5MA GENERAL PURPOSE SOIC-8_150MIL OPERATIONAL AMPLIFIER ROHS</t>
+  </si>
+  <si>
+    <t>50V 130MA 225MW 10Ω@5V,100MA 2V@250ΜA P CHANNEL SOT-23(SOT-23-3) MOSFETS ROHS</t>
+  </si>
+  <si>
+    <t>LBSS84LT1G</t>
+  </si>
+  <si>
+    <t>$0.14</t>
+  </si>
+  <si>
+    <t>$0,03</t>
+  </si>
+  <si>
+    <t>$0,53</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>± $0.70</t>
+  </si>
+  <si>
+    <t>Resistors, capacitors and diodes not included as they are cheap, basic parts</t>
   </si>
 </sst>
 </file>
@@ -63,12 +86,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,9 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,18 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7592A3-93DC-4396-856D-F05766BBCE5A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,35 +476,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.53010000000000002</v>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>2.69E-2</v>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <f>C3+C2</f>
-        <v>0.55700000000000005</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>